--- a/data/georgia_census/guria/lanchxuti/age_dependency.xlsx
+++ b/data/georgia_census/guria/lanchxuti/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AC007E-C2E2-45B6-B072-03FE9C567480}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F554A1D1-DE56-48E0-AC1F-02876EC1B12C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F3D1CA-9695-4AEB-9EED-AECBE5D5887A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CF1F96-544F-417E-913E-59AF4A677001}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70805FD9-5D1B-42DB-A649-E05A177FF95B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E67CB18B-D13F-48D8-A10A-F359F72D63A7}"/>
 </file>